--- a/Spreadsheet/Target.xlsx
+++ b/Spreadsheet/Target.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taeho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taeho\go\src\redteam\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,71 +46,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 시간(작성 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태호</t>
+  </si>
+  <si>
+    <t>sjabber@naver.com</t>
+  </si>
+  <si>
+    <t>010-9856-1765</t>
+  </si>
+  <si>
+    <t>개발</t>
+  </si>
+  <si>
+    <t>신입</t>
+  </si>
+  <si>
+    <t>부분훈련</t>
+  </si>
+  <si>
     <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gildong@gmail.com</t>
+  </si>
+  <si>
+    <t>010-7575-1234</t>
+  </si>
+  <si>
+    <t>마케팅</t>
+  </si>
+  <si>
+    <t>과장</t>
+  </si>
+  <si>
+    <t>전체훈련</t>
   </si>
   <si>
     <t>루삥뽕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sjabber@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gildong@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ppingbbong@hanmail.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9856-1765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7575-1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>010-1234-5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +143,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +189,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,23 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
+    <col min="1" max="7" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,73 +502,76 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spreadsheet/Target.xlsx
+++ b/Spreadsheet/Target.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정된 시간(작성 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>태그1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김태호</t>
   </si>
   <si>
@@ -69,9 +77,6 @@
     <t>신입</t>
   </si>
   <si>
-    <t>부분훈련</t>
-  </si>
-  <si>
     <t>홍길동</t>
   </si>
   <si>
@@ -87,9 +92,6 @@
     <t>과장</t>
   </si>
   <si>
-    <t>전체훈련</t>
-  </si>
-  <si>
     <t>루삥뽕</t>
   </si>
   <si>
@@ -103,13 +105,29 @@
   </si>
   <si>
     <t>대리</t>
+  </si>
+  <si>
+    <t>정기훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실전훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,15 +138,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -170,34 +179,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,85 +477,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="30.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.69921875" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -566,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheet/Target.xlsx
+++ b/Spreadsheet/Target.xlsx
@@ -799,13 +799,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -817,25 +835,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1172,10 +1172,10 @@
       <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
@@ -1204,10 +1204,10 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="30"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -1225,7 +1225,7 @@
       <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1255,7 +1255,7 @@
       <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
@@ -1283,21 +1283,21 @@
       <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="25"/>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -1309,7 +1309,7 @@
       <c r="E6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1318,10 +1318,10 @@
       <c r="H6" s="25"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -1341,20 +1341,20 @@
       <c r="E7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="31"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -1366,20 +1366,20 @@
       <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -1391,16 +1391,16 @@
       <c r="E9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="21"/>
@@ -1418,20 +1418,20 @@
       <c r="E10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="21"/>
@@ -1441,20 +1441,20 @@
       <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="21"/>
@@ -1464,16 +1464,16 @@
       <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="21"/>
@@ -1491,20 +1491,20 @@
       <c r="E13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="31"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="21"/>
@@ -1514,50 +1514,50 @@
       <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="3"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="21"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="21"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="3"/>
       <c r="H16" s="10"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="41"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
